--- a/data/trans_orig/P34B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A35EF0F-F903-46F6-91B0-39A38AECF8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FC82F2D-6CBA-4EEE-A626-3253C9BD6668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E49CEAF1-E491-48EF-A086-295145874597}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B463FA58-350B-4197-A1EF-43B8710AC705}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="566">
   <si>
     <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -76,1597 +76,1621 @@
     <t>0,52%</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>5,59%</t>
   </si>
   <si>
     <t>4,97%</t>
@@ -1675,55 +1699,43 @@
     <t>5,32%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>76,85%</t>
   </si>
   <si>
-    <t>78,79%</t>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
   </si>
   <si>
     <t>87,56%</t>
   </si>
   <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>82,52%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04030F01-3E3F-45FA-BC5D-100D486F66EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA10020-0994-4C51-919D-2DC179114D28}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2280,7 +2292,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2289,19 +2301,19 @@
         <v>7140</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -2310,13 +2322,13 @@
         <v>3460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2325,13 +2337,13 @@
         <v>3318</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -2340,19 +2352,19 @@
         <v>6778</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>12</v>
@@ -2361,13 +2373,13 @@
         <v>11951</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -2376,13 +2388,13 @@
         <v>8181</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -2391,19 +2403,19 @@
         <v>20132</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>9</v>
@@ -2412,13 +2424,13 @@
         <v>8613</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2427,13 +2439,13 @@
         <v>5231</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -2442,19 +2454,19 @@
         <v>13843</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>20</v>
@@ -2463,13 +2475,13 @@
         <v>22271</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -2478,13 +2490,13 @@
         <v>23867</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2493,19 +2505,19 @@
         <v>46138</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
         <v>11</v>
@@ -2514,13 +2526,13 @@
         <v>11034</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -2529,13 +2541,13 @@
         <v>15366</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -2544,19 +2556,19 @@
         <v>26400</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7">
         <v>5</v>
@@ -2565,13 +2577,13 @@
         <v>4898</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2580,13 +2592,13 @@
         <v>3149</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2595,19 +2607,19 @@
         <v>8048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="7">
         <v>842</v>
@@ -2616,13 +2628,13 @@
         <v>905325</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H11" s="7">
         <v>1190</v>
@@ -2631,13 +2643,13 @@
         <v>1276567</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>2032</v>
@@ -2646,13 +2658,13 @@
         <v>2181893</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2679,13 @@
         <v>972575</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>1247</v>
@@ -2682,13 +2694,13 @@
         <v>1337796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>2153</v>
@@ -2697,18 +2709,18 @@
         <v>2310372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2720,13 +2732,13 @@
         <v>50035</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2735,13 +2747,13 @@
         <v>10802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -2750,19 +2762,19 @@
         <v>60837</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>12</v>
@@ -2771,13 +2783,13 @@
         <v>13962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2786,13 +2798,13 @@
         <v>3974</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -2801,10 +2813,10 @@
         <v>17937</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>99</v>
@@ -2813,7 +2825,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7">
         <v>85</v>
@@ -2843,7 +2855,7 @@
         <v>104</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
@@ -2852,19 +2864,19 @@
         <v>111774</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7">
         <v>46</v>
@@ -2873,13 +2885,13 @@
         <v>47869</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2888,13 +2900,13 @@
         <v>17551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -2903,19 +2915,19 @@
         <v>65420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="7">
         <v>144</v>
@@ -2924,13 +2936,13 @@
         <v>150090</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -2939,13 +2951,13 @@
         <v>63995</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>205</v>
@@ -2954,19 +2966,19 @@
         <v>214085</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7">
         <v>90</v>
@@ -2975,13 +2987,13 @@
         <v>92005</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -2990,13 +3002,13 @@
         <v>47043</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -3005,19 +3017,19 @@
         <v>139047</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="7">
         <v>19</v>
@@ -3026,13 +3038,13 @@
         <v>18619</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -3041,13 +3053,13 @@
         <v>16886</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -3056,19 +3068,19 @@
         <v>35504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="7">
         <v>1413</v>
@@ -3077,13 +3089,13 @@
         <v>1506194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>1458</v>
@@ -3092,13 +3104,13 @@
         <v>1569068</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>2871</v>
@@ -3107,13 +3119,13 @@
         <v>3075262</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3140,13 @@
         <v>1963957</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H21" s="7">
         <v>1634</v>
@@ -3143,13 +3155,13 @@
         <v>1755909</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
         <v>3490</v>
@@ -3158,18 +3170,18 @@
         <v>3719866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3181,13 +3193,13 @@
         <v>15995</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3196,13 +3208,13 @@
         <v>5984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3211,19 +3223,19 @@
         <v>21979</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>7</v>
@@ -3232,13 +3244,13 @@
         <v>7590</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3247,13 +3259,13 @@
         <v>1046</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3262,19 +3274,19 @@
         <v>8636</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>18</v>
@@ -3283,13 +3295,13 @@
         <v>22011</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -3298,13 +3310,13 @@
         <v>9593</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -3313,19 +3325,19 @@
         <v>31604</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>19</v>
@@ -3334,13 +3346,13 @@
         <v>18551</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3349,13 +3361,13 @@
         <v>14213</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -3364,19 +3376,19 @@
         <v>32764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>63</v>
@@ -3385,13 +3397,13 @@
         <v>68617</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -3400,13 +3412,13 @@
         <v>35188</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -3415,19 +3427,19 @@
         <v>103806</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="7">
         <v>30</v>
@@ -3436,13 +3448,13 @@
         <v>37433</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>20</v>
@@ -3451,13 +3463,13 @@
         <v>23454</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>50</v>
@@ -3466,19 +3478,19 @@
         <v>60887</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="7">
         <v>6</v>
@@ -3487,13 +3499,13 @@
         <v>6053</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3502,13 +3514,13 @@
         <v>4614</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -3517,19 +3529,19 @@
         <v>10667</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="7">
         <v>283</v>
@@ -3538,13 +3550,13 @@
         <v>304931</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>330</v>
@@ -3553,13 +3565,13 @@
         <v>364537</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>613</v>
@@ -3568,13 +3580,13 @@
         <v>669468</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3601,13 @@
         <v>481181</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H30" s="7">
         <v>412</v>
@@ -3604,13 +3616,13 @@
         <v>458631</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
@@ -3619,13 +3631,13 @@
         <v>939812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3654,13 @@
         <v>71054</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -3657,13 +3669,13 @@
         <v>18901</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>43</v>
       </c>
       <c r="M31" s="7">
         <v>81</v>
@@ -3672,19 +3684,19 @@
         <v>89955</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="7">
         <v>21</v>
@@ -3693,13 +3705,13 @@
         <v>25012</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -3708,13 +3720,13 @@
         <v>8339</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -3723,19 +3735,19 @@
         <v>33351</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="7">
         <v>115</v>
@@ -3744,13 +3756,13 @@
         <v>119145</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H33" s="7">
         <v>41</v>
@@ -3759,13 +3771,13 @@
         <v>44366</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="M33" s="7">
         <v>156</v>
@@ -3774,19 +3786,19 @@
         <v>163511</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7">
         <v>74</v>
@@ -3795,13 +3807,13 @@
         <v>75032</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H34" s="7">
         <v>35</v>
@@ -3810,13 +3822,13 @@
         <v>36995</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M34" s="7">
         <v>109</v>
@@ -3825,19 +3837,19 @@
         <v>112027</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="7">
         <v>227</v>
@@ -3846,13 +3858,13 @@
         <v>240978</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>112</v>
@@ -3861,13 +3873,13 @@
         <v>123051</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M35" s="7">
         <v>339</v>
@@ -3876,19 +3888,19 @@
         <v>364029</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7">
         <v>131</v>
@@ -3897,13 +3909,13 @@
         <v>140472</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="H36" s="7">
         <v>79</v>
@@ -3912,13 +3924,13 @@
         <v>85863</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M36" s="7">
         <v>210</v>
@@ -3927,19 +3939,19 @@
         <v>226335</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="7">
         <v>30</v>
@@ -3948,13 +3960,13 @@
         <v>29570</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="H37" s="7">
         <v>23</v>
@@ -3963,10 +3975,10 @@
         <v>24649</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>244</v>
@@ -3981,16 +3993,16 @@
         <v>99</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C38" s="7">
         <v>2538</v>
@@ -3999,7 +4011,7 @@
         <v>2716451</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>245</v>
@@ -4050,13 +4062,13 @@
         <v>3417714</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H39" s="7">
         <v>3293</v>
@@ -4065,13 +4077,13 @@
         <v>3552336</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M39" s="7">
         <v>6493</v>
@@ -4080,13 +4092,13 @@
         <v>6970050</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D1760A-4D29-4E18-A051-E6FD380ADD9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246340D4-8BFF-4A19-A170-D264DCCA5AFA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4234,7 +4246,7 @@
         <v>15683</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>255</v>
@@ -4249,13 +4261,13 @@
         <v>3720</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4264,19 +4276,19 @@
         <v>19403</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -4285,13 +4297,13 @@
         <v>3637</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4303,10 +4315,10 @@
         <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4315,19 +4327,19 @@
         <v>6344</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>18</v>
@@ -4336,13 +4348,13 @@
         <v>19209</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4351,13 +4363,13 @@
         <v>8644</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -4366,19 +4378,19 @@
         <v>27853</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>50</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -4387,13 +4399,13 @@
         <v>5285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4402,13 +4414,13 @@
         <v>1926</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4417,19 +4429,19 @@
         <v>7211</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>18</v>
@@ -4441,10 +4453,10 @@
         <v>269</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4453,13 +4465,13 @@
         <v>14634</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -4468,19 +4480,19 @@
         <v>33998</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
         <v>11</v>
@@ -4489,13 +4501,13 @@
         <v>11256</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -4507,10 +4519,10 @@
         <v>276</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -4519,19 +4531,19 @@
         <v>25796</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>132</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>278</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7">
         <v>7</v>
@@ -4540,13 +4552,13 @@
         <v>7350</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4555,13 +4567,13 @@
         <v>1916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4570,19 +4582,19 @@
         <v>9266</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="7">
         <v>684</v>
@@ -4591,13 +4603,13 @@
         <v>672563</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H11" s="7">
         <v>847</v>
@@ -4606,13 +4618,13 @@
         <v>946573</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>1531</v>
@@ -4621,13 +4633,13 @@
         <v>1619136</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4654,13 @@
         <v>754347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>892</v>
@@ -4657,13 +4669,13 @@
         <v>994660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>1654</v>
@@ -4672,18 +4684,18 @@
         <v>1749007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4695,13 +4707,13 @@
         <v>40652</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -4710,13 +4722,13 @@
         <v>17139</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -4725,19 +4737,19 @@
         <v>57792</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>17</v>
@@ -4746,13 +4758,13 @@
         <v>18269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4761,13 +4773,13 @@
         <v>5900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -4776,19 +4788,19 @@
         <v>24169</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7">
         <v>100</v>
@@ -4797,13 +4809,13 @@
         <v>105010</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>300</v>
+        <v>219</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H15" s="7">
         <v>57</v>
@@ -4812,13 +4824,13 @@
         <v>58709</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>241</v>
+        <v>305</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -4827,19 +4839,19 @@
         <v>163718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7">
         <v>52</v>
@@ -4848,13 +4860,13 @@
         <v>54480</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -4863,13 +4875,13 @@
         <v>37356</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -4878,19 +4890,19 @@
         <v>91836</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="7">
         <v>135</v>
@@ -4941,7 +4953,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7">
         <v>116</v>
@@ -4953,10 +4965,10 @@
         <v>322</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>176</v>
+        <v>323</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>158</v>
+        <v>324</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -4965,13 +4977,13 @@
         <v>69256</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>325</v>
+        <v>132</v>
       </c>
       <c r="M18" s="7">
         <v>182</v>
@@ -4980,10 +4992,10 @@
         <v>195820</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>327</v>
+        <v>219</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>328</v>
@@ -4992,7 +5004,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="7">
         <v>68</v>
@@ -5001,13 +5013,13 @@
         <v>72691</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>329</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -5016,13 +5028,13 @@
         <v>24034</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>330</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>331</v>
       </c>
       <c r="M19" s="7">
         <v>91</v>
@@ -5031,19 +5043,19 @@
         <v>96725</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="7">
         <v>1425</v>
@@ -5052,13 +5064,13 @@
         <v>1515911</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
         <v>1616</v>
@@ -5067,13 +5079,13 @@
         <v>1687320</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M20" s="7">
         <v>3041</v>
@@ -5082,13 +5094,13 @@
         <v>3203231</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5115,13 @@
         <v>2076385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H21" s="7">
         <v>1908</v>
@@ -5118,13 +5130,13 @@
         <v>1988300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
         <v>3860</v>
@@ -5133,18 +5145,18 @@
         <v>4064685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5156,10 +5168,10 @@
         <v>16901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>343</v>
+        <v>225</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>344</v>
@@ -5177,7 +5189,7 @@
         <v>346</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -5186,19 +5198,19 @@
         <v>26407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>52</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>2</v>
@@ -5213,7 +5225,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -5222,13 +5234,13 @@
         <v>1827</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>349</v>
+        <v>60</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5237,19 +5249,19 @@
         <v>4695</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>32</v>
@@ -5258,13 +5270,13 @@
         <v>33476</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5273,13 +5285,13 @@
         <v>16309</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>354</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -5288,19 +5300,19 @@
         <v>49785</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>22</v>
@@ -5309,13 +5321,13 @@
         <v>22507</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -5324,13 +5336,13 @@
         <v>20771</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -5339,7 +5351,7 @@
         <v>43279</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>362</v>
+        <v>265</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>363</v>
@@ -5351,7 +5363,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>64</v>
@@ -5393,16 +5405,16 @@
         <v>371</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="7">
         <v>32</v>
@@ -5411,13 +5423,13 @@
         <v>36854</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H27" s="7">
         <v>33</v>
@@ -5426,13 +5438,13 @@
         <v>37033</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>306</v>
+        <v>377</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M27" s="7">
         <v>65</v>
@@ -5441,19 +5453,19 @@
         <v>73887</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="7">
         <v>21</v>
@@ -5462,13 +5474,13 @@
         <v>24492</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>122</v>
+        <v>382</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -5477,13 +5489,13 @@
         <v>16565</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -5492,19 +5504,19 @@
         <v>41056</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>241</v>
+        <v>385</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="7">
         <v>314</v>
@@ -5513,13 +5525,13 @@
         <v>341959</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H29" s="7">
         <v>383</v>
@@ -5528,13 +5540,13 @@
         <v>399793</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M29" s="7">
         <v>697</v>
@@ -5543,13 +5555,13 @@
         <v>741752</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5576,13 @@
         <v>546886</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H30" s="7">
         <v>526</v>
@@ -5579,13 +5591,13 @@
         <v>549140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M30" s="7">
         <v>1027</v>
@@ -5594,13 +5606,13 @@
         <v>1096026</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5629,13 @@
         <v>73237</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -5632,13 +5644,13 @@
         <v>30365</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>329</v>
+        <v>399</v>
       </c>
       <c r="M31" s="7">
         <v>97</v>
@@ -5647,19 +5659,19 @@
         <v>103601</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>263</v>
+        <v>400</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="7">
         <v>22</v>
@@ -5668,13 +5680,13 @@
         <v>24774</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -5683,13 +5695,13 @@
         <v>10435</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>260</v>
+        <v>402</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>396</v>
+        <v>35</v>
       </c>
       <c r="M32" s="7">
         <v>33</v>
@@ -5698,19 +5710,19 @@
         <v>35208</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="7">
         <v>150</v>
@@ -5719,13 +5731,13 @@
         <v>157695</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="H33" s="7">
         <v>81</v>
@@ -5734,13 +5746,13 @@
         <v>83661</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="M33" s="7">
         <v>231</v>
@@ -5749,19 +5761,19 @@
         <v>241356</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>264</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7">
         <v>79</v>
@@ -5770,13 +5782,13 @@
         <v>82272</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>126</v>
+        <v>411</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>404</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>59</v>
@@ -5785,13 +5797,13 @@
         <v>60053</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M34" s="7">
         <v>138</v>
@@ -5800,19 +5812,19 @@
         <v>142326</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>277</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="7">
         <v>217</v>
@@ -5821,13 +5833,13 @@
         <v>230002</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="H35" s="7">
         <v>146</v>
@@ -5836,13 +5848,13 @@
         <v>150555</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>411</v>
+        <v>320</v>
       </c>
       <c r="M35" s="7">
         <v>363</v>
@@ -5851,19 +5863,19 @@
         <v>380557</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>413</v>
+        <v>320</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7">
         <v>159</v>
@@ -5872,13 +5884,13 @@
         <v>174673</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="H36" s="7">
         <v>113</v>
@@ -5887,13 +5899,13 @@
         <v>120830</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>417</v>
+        <v>310</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>418</v>
+        <v>242</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>419</v>
+        <v>353</v>
       </c>
       <c r="M36" s="7">
         <v>272</v>
@@ -5902,19 +5914,19 @@
         <v>295503</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="7">
         <v>96</v>
@@ -5923,13 +5935,13 @@
         <v>104533</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>272</v>
+        <v>427</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>305</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -5938,13 +5950,13 @@
         <v>42515</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>242</v>
+        <v>428</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>271</v>
+        <v>38</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="M37" s="7">
         <v>138</v>
@@ -5953,19 +5965,19 @@
         <v>147048</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C38" s="7">
         <v>2423</v>
@@ -5974,13 +5986,13 @@
         <v>2530433</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="H38" s="7">
         <v>2846</v>
@@ -5989,13 +6001,13 @@
         <v>3033686</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="M38" s="7">
         <v>5269</v>
@@ -6004,13 +6016,13 @@
         <v>5564119</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>199</v>
+        <v>436</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,13 +6037,13 @@
         <v>3377618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H39" s="7">
         <v>3326</v>
@@ -6040,13 +6052,13 @@
         <v>3532100</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M39" s="7">
         <v>6541</v>
@@ -6055,13 +6067,13 @@
         <v>6909718</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BBC669-EB6D-4BFF-AF69-0FB047C91186}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36641A5B-90DB-44DE-B4E3-BF214303B678}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6102,7 +6114,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6209,13 +6221,13 @@
         <v>4857</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>346</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6224,13 +6236,13 @@
         <v>3704</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>243</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>152</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -6239,19 +6251,19 @@
         <v>8561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>5</v>
@@ -6263,10 +6275,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6275,13 +6287,13 @@
         <v>473</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -6290,19 +6302,19 @@
         <v>3293</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>13</v>
@@ -6311,13 +6323,13 @@
         <v>9817</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>295</v>
+        <v>440</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -6326,13 +6338,13 @@
         <v>5272</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>435</v>
+        <v>61</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>21</v>
@@ -6341,19 +6353,19 @@
         <v>15089</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>436</v>
+        <v>215</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -6362,13 +6374,13 @@
         <v>3954</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6377,13 +6389,13 @@
         <v>2640</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>444</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -6392,19 +6404,19 @@
         <v>6594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>445</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -6413,13 +6425,13 @@
         <v>4794</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>380</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -6428,13 +6440,13 @@
         <v>7403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>98</v>
+        <v>401</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -6443,19 +6455,19 @@
         <v>12197</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>446</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -6464,13 +6476,13 @@
         <v>1737</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>438</v>
+        <v>212</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -6479,13 +6491,13 @@
         <v>3601</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>154</v>
+        <v>346</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -6494,19 +6506,19 @@
         <v>5337</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -6515,13 +6527,13 @@
         <v>1925</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>399</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6530,13 +6542,13 @@
         <v>1629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -6545,19 +6557,19 @@
         <v>3554</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>450</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="7">
         <v>654</v>
@@ -6566,13 +6578,13 @@
         <v>511730</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="H11" s="7">
         <v>1388</v>
@@ -6581,13 +6593,13 @@
         <v>807892</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="M11" s="7">
         <v>2042</v>
@@ -6596,13 +6608,13 @@
         <v>1319621</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6629,13 @@
         <v>541634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>1425</v>
@@ -6632,13 +6644,13 @@
         <v>832612</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>2116</v>
@@ -6647,18 +6659,18 @@
         <v>1374246</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6670,13 +6682,13 @@
         <v>22832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>460</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -6685,13 +6697,13 @@
         <v>12649</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -6700,19 +6712,19 @@
         <v>35481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>462</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>446</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>349</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>19</v>
@@ -6721,13 +6733,13 @@
         <v>23712</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>449</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6736,13 +6748,13 @@
         <v>1645</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>453</v>
+        <v>33</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -6751,19 +6763,19 @@
         <v>25357</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>454</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7">
         <v>107</v>
@@ -6772,13 +6784,13 @@
         <v>147329</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="H15" s="7">
         <v>58</v>
@@ -6787,13 +6799,13 @@
         <v>45233</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>195</v>
+        <v>469</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="M15" s="7">
         <v>165</v>
@@ -6802,19 +6814,19 @@
         <v>192563</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7">
         <v>57</v>
@@ -6823,13 +6835,13 @@
         <v>64986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>474</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -6838,13 +6850,13 @@
         <v>26287</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>476</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>463</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -6853,19 +6865,19 @@
         <v>91273</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="7">
         <v>110</v>
@@ -6874,13 +6886,13 @@
         <v>145951</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -6889,13 +6901,13 @@
         <v>88110</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>484</v>
       </c>
       <c r="M17" s="7">
         <v>218</v>
@@ -6907,16 +6919,16 @@
         <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7">
         <v>75</v>
@@ -6925,13 +6937,13 @@
         <v>106351</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>320</v>
+        <v>169</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>151</v>
+        <v>425</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>369</v>
+        <v>487</v>
       </c>
       <c r="H18" s="7">
         <v>79</v>
@@ -6940,13 +6952,13 @@
         <v>66116</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>402</v>
+        <v>488</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="M18" s="7">
         <v>154</v>
@@ -6955,19 +6967,19 @@
         <v>172467</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>434</v>
+        <v>256</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>354</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="7">
         <v>30</v>
@@ -6976,13 +6988,13 @@
         <v>37831</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>62</v>
+        <v>492</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -6991,13 +7003,13 @@
         <v>18657</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>493</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>68</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>476</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
@@ -7006,19 +7018,19 @@
         <v>56488</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>494</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="7">
         <v>1573</v>
@@ -7027,13 +7039,13 @@
         <v>1611133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>495</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="H20" s="7">
         <v>2607</v>
@@ -7042,13 +7054,13 @@
         <v>1987878</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="M20" s="7">
         <v>4180</v>
@@ -7057,13 +7069,13 @@
         <v>3599011</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,13 +7090,13 @@
         <v>2160126</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H21" s="7">
         <v>2919</v>
@@ -7093,13 +7105,13 @@
         <v>2246575</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
         <v>4909</v>
@@ -7108,18 +7120,18 @@
         <v>4406700</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7131,13 +7143,13 @@
         <v>14137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -7146,13 +7158,13 @@
         <v>10651</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>505</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -7161,19 +7173,19 @@
         <v>24788</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>487</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>9</v>
@@ -7182,13 +7194,13 @@
         <v>8737</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>461</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>312</v>
+        <v>506</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -7197,13 +7209,13 @@
         <v>1469</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>12</v>
+        <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -7212,19 +7224,19 @@
         <v>10207</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>463</v>
+        <v>273</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>103</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>27</v>
@@ -7233,13 +7245,13 @@
         <v>29594</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>488</v>
+        <v>330</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>213</v>
+        <v>507</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -7248,13 +7260,13 @@
         <v>23246</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>434</v>
+        <v>190</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>354</v>
+        <v>510</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
@@ -7263,19 +7275,19 @@
         <v>52840</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>491</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>21</v>
@@ -7284,13 +7296,13 @@
         <v>25782</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>493</v>
+        <v>332</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -7299,13 +7311,13 @@
         <v>23282</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>190</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>392</v>
+        <v>489</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -7314,19 +7326,19 @@
         <v>49064</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>496</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>497</v>
+        <v>210</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>65</v>
@@ -7335,13 +7347,13 @@
         <v>70691</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>517</v>
       </c>
       <c r="H26" s="7">
         <v>82</v>
@@ -7350,13 +7362,13 @@
         <v>64645</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>374</v>
+        <v>518</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="M26" s="7">
         <v>147</v>
@@ -7365,19 +7377,19 @@
         <v>135335</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="7">
         <v>36</v>
@@ -7386,13 +7398,13 @@
         <v>39447</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>506</v>
+        <v>314</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>507</v>
+        <v>234</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="H27" s="7">
         <v>63</v>
@@ -7401,13 +7413,13 @@
         <v>51128</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>510</v>
+        <v>406</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>511</v>
+        <v>376</v>
       </c>
       <c r="M27" s="7">
         <v>99</v>
@@ -7416,19 +7428,19 @@
         <v>90575</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="7">
         <v>14</v>
@@ -7437,13 +7449,13 @@
         <v>13892</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>169</v>
+        <v>528</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -7452,13 +7464,13 @@
         <v>14113</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>515</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -7467,19 +7479,19 @@
         <v>28006</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>432</v>
+        <v>530</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="7">
         <v>494</v>
@@ -7488,13 +7500,13 @@
         <v>470759</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="H29" s="7">
         <v>772</v>
@@ -7503,13 +7515,13 @@
         <v>525352</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="M29" s="7">
         <v>1266</v>
@@ -7518,13 +7530,13 @@
         <v>996112</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,13 +7551,13 @@
         <v>673039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H30" s="7">
         <v>1004</v>
@@ -7554,13 +7566,13 @@
         <v>713886</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M30" s="7">
         <v>1685</v>
@@ -7569,13 +7581,13 @@
         <v>1386926</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,13 +7604,13 @@
         <v>41826</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>525</v>
+        <v>90</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>437</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>29</v>
@@ -7607,13 +7619,13 @@
         <v>27003</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>98</v>
+        <v>401</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="M31" s="7">
         <v>68</v>
@@ -7622,19 +7634,19 @@
         <v>68829</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>525</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="7">
         <v>33</v>
@@ -7643,13 +7655,13 @@
         <v>35269</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>527</v>
+        <v>68</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>266</v>
+        <v>541</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -7658,13 +7670,13 @@
         <v>3587</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
@@ -7673,19 +7685,19 @@
         <v>38856</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>543</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>275</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="7">
         <v>147</v>
@@ -7694,13 +7706,13 @@
         <v>186739</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>530</v>
+        <v>122</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>531</v>
+        <v>479</v>
       </c>
       <c r="H33" s="7">
         <v>92</v>
@@ -7709,13 +7721,13 @@
         <v>73752</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>266</v>
+        <v>545</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>422</v>
+        <v>195</v>
       </c>
       <c r="M33" s="7">
         <v>239</v>
@@ -7724,19 +7736,19 @@
         <v>260491</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7">
         <v>82</v>
@@ -7745,13 +7757,13 @@
         <v>94722</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>534</v>
+        <v>381</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>405</v>
+        <v>168</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="H34" s="7">
         <v>65</v>
@@ -7760,13 +7772,13 @@
         <v>52208</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>536</v>
+        <v>21</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>451</v>
+        <v>549</v>
       </c>
       <c r="M34" s="7">
         <v>147</v>
@@ -7775,19 +7787,19 @@
         <v>146931</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>537</v>
+        <v>309</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>538</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="7">
         <v>181</v>
@@ -7796,13 +7808,13 @@
         <v>221436</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>539</v>
+        <v>125</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>541</v>
+        <v>417</v>
       </c>
       <c r="H35" s="7">
         <v>202</v>
@@ -7811,13 +7823,13 @@
         <v>160158</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>107</v>
+        <v>317</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="M35" s="7">
         <v>383</v>
@@ -7826,19 +7838,19 @@
         <v>381594</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7">
         <v>113</v>
@@ -7847,13 +7859,13 @@
         <v>147535</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H36" s="7">
         <v>148</v>
@@ -7862,13 +7874,13 @@
         <v>120845</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>547</v>
+        <v>156</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>151</v>
+        <v>556</v>
       </c>
       <c r="M36" s="7">
         <v>261</v>
@@ -7877,19 +7889,19 @@
         <v>268380</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>549</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>550</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="7">
         <v>46</v>
@@ -7898,13 +7910,13 @@
         <v>53649</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>551</v>
+        <v>63</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>303</v>
+        <v>105</v>
       </c>
       <c r="H37" s="7">
         <v>39</v>
@@ -7913,13 +7925,13 @@
         <v>34399</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>552</v>
+        <v>221</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>553</v>
+        <v>494</v>
       </c>
       <c r="M37" s="7">
         <v>85</v>
@@ -7928,19 +7940,19 @@
         <v>88048</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>152</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C38" s="7">
         <v>2721</v>
@@ -7949,13 +7961,13 @@
         <v>2593621</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>335</v>
+        <v>558</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H38" s="7">
         <v>4767</v>
@@ -7964,13 +7976,13 @@
         <v>3321122</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="M38" s="7">
         <v>7488</v>
@@ -7979,13 +7991,13 @@
         <v>5914743</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8000,13 +8012,13 @@
         <v>3374798</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H39" s="7">
         <v>5348</v>
@@ -8015,13 +8027,13 @@
         <v>3793074</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M39" s="7">
         <v>8710</v>
@@ -8030,13 +8042,13 @@
         <v>7167872</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P34B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B03-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FC82F2D-6CBA-4EEE-A626-3253C9BD6668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A7C557-D607-4122-840D-1269CA52F935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B463FA58-350B-4197-A1EF-43B8710AC705}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C065AEEC-14D5-46D4-9815-04D4D5645B41}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="574">
   <si>
     <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -79,1636 +79,1660 @@
     <t>0,19%</t>
   </si>
   <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
   </si>
   <si>
     <t>76,85%</t>
@@ -2147,7 +2171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA10020-0994-4C51-919D-2DC179114D28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3DBF8E-86AE-49EB-BA55-B91E75DAFF8B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2292,7 +2316,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2301,19 +2325,19 @@
         <v>7140</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -2322,13 +2346,13 @@
         <v>3460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2337,13 +2361,13 @@
         <v>3318</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -2352,19 +2376,19 @@
         <v>6778</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>12</v>
@@ -2373,13 +2397,13 @@
         <v>11951</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -2388,13 +2412,13 @@
         <v>8181</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -2403,19 +2427,19 @@
         <v>20132</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>9</v>
@@ -2424,13 +2448,13 @@
         <v>8613</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2439,13 +2463,13 @@
         <v>5231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -2454,19 +2478,19 @@
         <v>13843</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>20</v>
@@ -2475,13 +2499,13 @@
         <v>22271</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -2490,13 +2514,13 @@
         <v>23867</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2505,19 +2529,19 @@
         <v>46138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>11</v>
@@ -2526,10 +2550,10 @@
         <v>11034</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>59</v>
@@ -2592,13 +2616,13 @@
         <v>3149</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2607,13 +2631,13 @@
         <v>8048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2771,13 @@
         <v>10802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -2762,19 +2786,19 @@
         <v>60837</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>12</v>
@@ -2783,13 +2807,13 @@
         <v>13962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2798,13 +2822,13 @@
         <v>3974</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -2813,19 +2837,19 @@
         <v>17937</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7">
         <v>85</v>
@@ -2834,13 +2858,13 @@
         <v>85183</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7">
         <v>25</v>
@@ -2849,13 +2873,13 @@
         <v>26591</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
@@ -2864,19 +2888,19 @@
         <v>111774</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="7">
         <v>46</v>
@@ -2885,13 +2909,13 @@
         <v>47869</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2900,13 +2924,13 @@
         <v>17551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -2915,19 +2939,19 @@
         <v>65420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="7">
         <v>144</v>
@@ -2936,13 +2960,13 @@
         <v>150090</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -2951,13 +2975,13 @@
         <v>63995</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>205</v>
@@ -2966,19 +2990,19 @@
         <v>214085</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="7">
         <v>90</v>
@@ -2987,13 +3011,13 @@
         <v>92005</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -3002,13 +3026,13 @@
         <v>47043</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -3017,13 +3041,13 @@
         <v>139047</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3062,13 @@
         <v>18619</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -3053,13 +3077,13 @@
         <v>16886</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -3068,13 +3092,13 @@
         <v>35504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3113,13 @@
         <v>1506194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>1458</v>
@@ -3104,13 +3128,13 @@
         <v>1569068</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>2871</v>
@@ -3119,13 +3143,13 @@
         <v>3075262</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,7 +3205,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3193,13 +3217,13 @@
         <v>15995</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3208,13 +3232,13 @@
         <v>5984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3223,19 +3247,19 @@
         <v>21979</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>7</v>
@@ -3244,13 +3268,13 @@
         <v>7590</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3259,13 +3283,13 @@
         <v>1046</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3274,19 +3298,19 @@
         <v>8636</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>18</v>
@@ -3295,13 +3319,13 @@
         <v>22011</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -3310,13 +3334,13 @@
         <v>9593</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -3325,19 +3349,19 @@
         <v>31604</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>19</v>
@@ -3346,13 +3370,13 @@
         <v>18551</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3361,13 +3385,13 @@
         <v>14213</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -3376,19 +3400,19 @@
         <v>32764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>63</v>
@@ -3397,13 +3421,13 @@
         <v>68617</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -3412,13 +3436,13 @@
         <v>35188</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -3427,19 +3451,19 @@
         <v>103806</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="7">
         <v>30</v>
@@ -3448,13 +3472,13 @@
         <v>37433</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H27" s="7">
         <v>20</v>
@@ -3463,13 +3487,13 @@
         <v>23454</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M27" s="7">
         <v>50</v>
@@ -3478,13 +3502,13 @@
         <v>60887</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3523,13 @@
         <v>6053</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3514,13 +3538,13 @@
         <v>4614</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -3532,10 +3556,10 @@
         <v>63</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3574,13 @@
         <v>304931</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>330</v>
@@ -3565,13 +3589,13 @@
         <v>364537</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>613</v>
@@ -3580,13 +3604,13 @@
         <v>669468</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3678,13 @@
         <v>71054</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -3669,13 +3693,13 @@
         <v>18901</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="M31" s="7">
         <v>81</v>
@@ -3684,19 +3708,19 @@
         <v>89955</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C32" s="7">
         <v>21</v>
@@ -3705,13 +3729,13 @@
         <v>25012</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -3720,13 +3744,13 @@
         <v>8339</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -3735,19 +3759,19 @@
         <v>33351</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>217</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="7">
         <v>115</v>
@@ -3756,13 +3780,13 @@
         <v>119145</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H33" s="7">
         <v>41</v>
@@ -3771,13 +3795,13 @@
         <v>44366</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
         <v>156</v>
@@ -3786,19 +3810,19 @@
         <v>163511</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34" s="7">
         <v>74</v>
@@ -3807,13 +3831,13 @@
         <v>75032</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H34" s="7">
         <v>35</v>
@@ -3822,13 +3846,13 @@
         <v>36995</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M34" s="7">
         <v>109</v>
@@ -3837,19 +3861,19 @@
         <v>112027</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="7">
         <v>227</v>
@@ -3858,13 +3882,13 @@
         <v>240978</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H35" s="7">
         <v>112</v>
@@ -3873,13 +3897,13 @@
         <v>123051</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M35" s="7">
         <v>339</v>
@@ -3888,19 +3912,19 @@
         <v>364029</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>148</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7">
         <v>131</v>
@@ -3909,13 +3933,13 @@
         <v>140472</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>79</v>
@@ -3924,13 +3948,13 @@
         <v>85863</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>210</v>
@@ -3939,13 +3963,13 @@
         <v>226335</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3984,13 @@
         <v>29570</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>88</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>23</v>
@@ -3975,13 +3999,13 @@
         <v>24649</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M37" s="7">
         <v>53</v>
@@ -3990,13 +4014,13 @@
         <v>54220</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4035,13 @@
         <v>2716451</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H38" s="7">
         <v>2978</v>
@@ -4026,13 +4050,13 @@
         <v>3210172</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M38" s="7">
         <v>5516</v>
@@ -4041,13 +4065,13 @@
         <v>5926622</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4127,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4122,7 +4146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246340D4-8BFF-4A19-A170-D264DCCA5AFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B6D9A7-7F7F-4EC5-BC3B-6C1F18B009CA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4139,7 +4163,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4246,13 +4270,13 @@
         <v>15683</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4261,13 +4285,13 @@
         <v>3720</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4279,16 +4303,16 @@
         <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -4297,13 +4321,13 @@
         <v>3637</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4315,10 +4339,10 @@
         <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>28</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4327,19 +4351,19 @@
         <v>6344</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>18</v>
@@ -4351,10 +4375,10 @@
         <v>84</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4363,13 +4387,13 @@
         <v>8644</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -4378,19 +4402,19 @@
         <v>27853</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>267</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -4399,13 +4423,13 @@
         <v>5285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>61</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>267</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4420,7 +4444,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4429,19 +4453,19 @@
         <v>7211</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>18</v>
@@ -4450,13 +4474,13 @@
         <v>19364</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4465,13 +4489,13 @@
         <v>14634</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>272</v>
+        <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>273</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -4480,19 +4504,19 @@
         <v>33998</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>11</v>
@@ -4501,13 +4525,13 @@
         <v>11256</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -4516,13 +4540,13 @@
         <v>14540</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -4531,13 +4555,13 @@
         <v>25796</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>272</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>278</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4576,13 @@
         <v>7350</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>284</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4573,7 +4597,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4582,13 +4606,13 @@
         <v>9266</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4627,13 @@
         <v>672563</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H11" s="7">
         <v>847</v>
@@ -4618,13 +4642,13 @@
         <v>946573</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
         <v>1531</v>
@@ -4633,13 +4657,13 @@
         <v>1619136</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4731,13 @@
         <v>40652</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -4722,13 +4746,13 @@
         <v>17139</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -4737,19 +4761,19 @@
         <v>57792</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>17</v>
@@ -4758,13 +4782,13 @@
         <v>18269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4773,13 +4797,13 @@
         <v>5900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -4788,19 +4812,19 @@
         <v>24169</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7">
         <v>100</v>
@@ -4809,13 +4833,13 @@
         <v>105010</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="H15" s="7">
         <v>57</v>
@@ -4824,13 +4848,13 @@
         <v>58709</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -4839,19 +4863,19 @@
         <v>163718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="7">
         <v>52</v>
@@ -4860,13 +4884,13 @@
         <v>54480</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>121</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -4875,13 +4899,13 @@
         <v>37356</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>115</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -4890,19 +4914,19 @@
         <v>91836</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="7">
         <v>135</v>
@@ -4911,13 +4935,13 @@
         <v>142808</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -4926,13 +4950,13 @@
         <v>88585</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>222</v>
@@ -4941,19 +4965,19 @@
         <v>231394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="7">
         <v>116</v>
@@ -4962,13 +4986,13 @@
         <v>126563</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -4977,13 +5001,13 @@
         <v>69256</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>132</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
         <v>182</v>
@@ -4992,13 +5016,13 @@
         <v>195820</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5037,13 @@
         <v>72691</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -5028,13 +5052,13 @@
         <v>24034</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>341</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>91</v>
@@ -5043,13 +5067,13 @@
         <v>96725</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>333</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5088,13 @@
         <v>1515911</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>1616</v>
@@ -5079,13 +5103,13 @@
         <v>1687320</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="M20" s="7">
         <v>3041</v>
@@ -5094,13 +5118,13 @@
         <v>3203231</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,7 +5180,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5168,13 +5192,13 @@
         <v>16901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -5183,13 +5207,13 @@
         <v>9505</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -5198,19 +5222,19 @@
         <v>26407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>2</v>
@@ -5225,7 +5249,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -5234,7 +5258,7 @@
         <v>1827</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
@@ -5249,19 +5273,19 @@
         <v>4695</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>351</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>32</v>
@@ -5270,13 +5294,13 @@
         <v>33476</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5285,13 +5309,13 @@
         <v>16309</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -5300,19 +5324,19 @@
         <v>49785</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>22</v>
@@ -5321,13 +5345,13 @@
         <v>22507</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -5336,13 +5360,13 @@
         <v>20771</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>362</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -5351,19 +5375,19 @@
         <v>43279</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>265</v>
+        <v>368</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>364</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>64</v>
@@ -5372,13 +5396,13 @@
         <v>67830</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -5387,13 +5411,13 @@
         <v>47336</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M26" s="7">
         <v>110</v>
@@ -5402,19 +5426,19 @@
         <v>115165</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="7">
         <v>32</v>
@@ -5423,13 +5447,13 @@
         <v>36854</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H27" s="7">
         <v>33</v>
@@ -5438,13 +5462,13 @@
         <v>37033</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>377</v>
+        <v>233</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M27" s="7">
         <v>65</v>
@@ -5453,13 +5477,13 @@
         <v>73887</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5498,13 @@
         <v>24492</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -5489,13 +5513,13 @@
         <v>16565</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>331</v>
+        <v>52</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -5504,13 +5528,13 @@
         <v>41056</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>386</v>
+        <v>319</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5549,13 @@
         <v>341959</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H29" s="7">
         <v>383</v>
@@ -5540,13 +5564,13 @@
         <v>399793</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M29" s="7">
         <v>697</v>
@@ -5555,13 +5579,13 @@
         <v>741752</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,13 +5653,13 @@
         <v>73237</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>396</v>
+        <v>161</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>397</v>
+        <v>260</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -5644,13 +5668,13 @@
         <v>30365</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>399</v>
+        <v>276</v>
       </c>
       <c r="M31" s="7">
         <v>97</v>
@@ -5659,19 +5683,19 @@
         <v>103601</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>400</v>
+        <v>263</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>13</v>
+        <v>401</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C32" s="7">
         <v>22</v>
@@ -5680,13 +5704,13 @@
         <v>24774</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>401</v>
+        <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -5695,13 +5719,13 @@
         <v>10435</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>299</v>
+        <v>92</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>402</v>
+        <v>14</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>35</v>
+        <v>403</v>
       </c>
       <c r="M32" s="7">
         <v>33</v>
@@ -5713,16 +5737,16 @@
         <v>403</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="7">
         <v>150</v>
@@ -5749,10 +5773,10 @@
         <v>407</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>311</v>
+        <v>121</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="M33" s="7">
         <v>231</v>
@@ -5761,19 +5785,19 @@
         <v>241356</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34" s="7">
         <v>79</v>
@@ -5782,13 +5806,13 @@
         <v>82272</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>59</v>
@@ -5800,10 +5824,10 @@
         <v>412</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="M34" s="7">
         <v>138</v>
@@ -5812,19 +5836,19 @@
         <v>142326</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>414</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="7">
         <v>217</v>
@@ -5833,13 +5857,13 @@
         <v>230002</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H35" s="7">
         <v>146</v>
@@ -5848,13 +5872,13 @@
         <v>150555</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>320</v>
+        <v>421</v>
       </c>
       <c r="M35" s="7">
         <v>363</v>
@@ -5863,19 +5887,19 @@
         <v>380557</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7">
         <v>159</v>
@@ -5884,13 +5908,13 @@
         <v>174673</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>423</v>
+        <v>365</v>
       </c>
       <c r="H36" s="7">
         <v>113</v>
@@ -5899,13 +5923,13 @@
         <v>120830</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>242</v>
+        <v>400</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>353</v>
+        <v>425</v>
       </c>
       <c r="M36" s="7">
         <v>272</v>
@@ -5914,13 +5938,13 @@
         <v>295503</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,13 +5959,13 @@
         <v>104533</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>427</v>
+        <v>100</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>305</v>
+        <v>429</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -5950,13 +5974,13 @@
         <v>42515</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>428</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>138</v>
@@ -5965,13 +5989,13 @@
         <v>147048</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>59</v>
+        <v>430</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>51</v>
+        <v>431</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +6010,13 @@
         <v>2530433</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H38" s="7">
         <v>2846</v>
@@ -6001,13 +6025,13 @@
         <v>3033686</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M38" s="7">
         <v>5269</v>
@@ -6016,13 +6040,13 @@
         <v>5564119</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,7 +6102,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6097,7 +6121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36641A5B-90DB-44DE-B4E3-BF214303B678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0A7866-0CBD-4273-90F1-053FD2F42C72}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6114,7 +6138,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6221,13 +6245,13 @@
         <v>4857</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>346</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6236,13 +6260,13 @@
         <v>3704</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -6251,19 +6275,19 @@
         <v>8561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>291</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>5</v>
@@ -6275,10 +6299,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>444</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6287,13 +6311,13 @@
         <v>473</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>445</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -6302,10 +6326,10 @@
         <v>3293</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>11</v>
@@ -6314,7 +6338,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>13</v>
@@ -6323,13 +6347,13 @@
         <v>9817</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>439</v>
+        <v>103</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -6338,13 +6362,13 @@
         <v>5272</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>61</v>
+        <v>448</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="M6" s="7">
         <v>21</v>
@@ -6353,19 +6377,19 @@
         <v>15089</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>215</v>
+        <v>450</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -6374,13 +6398,13 @@
         <v>3954</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>443</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6392,10 +6416,10 @@
         <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -6404,19 +6428,19 @@
         <v>6594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -6425,13 +6449,13 @@
         <v>4794</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -6440,13 +6464,13 @@
         <v>7403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>401</v>
+        <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>272</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -6455,19 +6479,19 @@
         <v>12197</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>446</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -6482,7 +6506,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -6491,13 +6515,13 @@
         <v>3601</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>351</v>
+        <v>145</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>346</v>
+        <v>213</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -6506,13 +6530,13 @@
         <v>5337</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>268</v>
+        <v>454</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>64</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6551,13 @@
         <v>1925</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6542,13 +6566,13 @@
         <v>1629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>449</v>
+        <v>19</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -6557,13 +6581,13 @@
         <v>3554</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>450</v>
+        <v>287</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6602,13 @@
         <v>511730</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="H11" s="7">
         <v>1388</v>
@@ -6593,13 +6617,13 @@
         <v>807892</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="M11" s="7">
         <v>2042</v>
@@ -6608,13 +6632,13 @@
         <v>1319621</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6706,13 @@
         <v>22832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>460</v>
+        <v>42</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -6697,13 +6721,13 @@
         <v>12649</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -6712,19 +6736,19 @@
         <v>35481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>462</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>446</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>19</v>
@@ -6733,13 +6757,13 @@
         <v>23712</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>450</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>449</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>464</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6751,10 +6775,10 @@
         <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -6763,19 +6787,19 @@
         <v>25357</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7">
         <v>107</v>
@@ -6784,13 +6808,13 @@
         <v>147329</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>467</v>
+        <v>180</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H15" s="7">
         <v>58</v>
@@ -6799,13 +6823,13 @@
         <v>45233</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>469</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>295</v>
+        <v>128</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>470</v>
+        <v>338</v>
       </c>
       <c r="M15" s="7">
         <v>165</v>
@@ -6814,19 +6838,19 @@
         <v>192563</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="7">
         <v>57</v>
@@ -6835,13 +6859,13 @@
         <v>64986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>430</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -6850,13 +6874,13 @@
         <v>26287</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>476</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>477</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -6865,19 +6889,19 @@
         <v>91273</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>477</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>478</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="7">
         <v>110</v>
@@ -6886,13 +6910,13 @@
         <v>145951</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -6901,13 +6925,13 @@
         <v>88110</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>483</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M17" s="7">
         <v>218</v>
@@ -6916,19 +6940,19 @@
         <v>234061</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>482</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="7">
         <v>75</v>
@@ -6937,10 +6961,10 @@
         <v>106351</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>169</v>
+        <v>485</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>425</v>
+        <v>486</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>487</v>
@@ -6967,13 +6991,13 @@
         <v>172467</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>405</v>
+        <v>491</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,13 +7012,13 @@
         <v>37831</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>225</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>492</v>
+        <v>241</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>274</v>
+        <v>156</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -7006,10 +7030,10 @@
         <v>493</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>291</v>
+        <v>443</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
@@ -7021,10 +7045,10 @@
         <v>494</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>331</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,7 +7155,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7146,10 +7170,10 @@
         <v>504</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -7158,13 +7182,13 @@
         <v>10651</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>505</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>319</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -7173,19 +7197,19 @@
         <v>24788</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>505</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>398</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>9</v>
@@ -7194,13 +7218,13 @@
         <v>8737</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -7209,13 +7233,13 @@
         <v>1469</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -7224,19 +7248,19 @@
         <v>10207</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>273</v>
+        <v>508</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>348</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>27</v>
@@ -7245,13 +7269,13 @@
         <v>29594</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>330</v>
+        <v>510</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>507</v>
+        <v>113</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -7260,13 +7284,13 @@
         <v>23246</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>509</v>
+        <v>413</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>510</v>
+        <v>421</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
@@ -7275,19 +7299,19 @@
         <v>52840</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>511</v>
+        <v>119</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>21</v>
@@ -7296,13 +7320,13 @@
         <v>25782</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -7311,13 +7335,13 @@
         <v>23282</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>489</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -7326,19 +7350,19 @@
         <v>49064</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>516</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>65</v>
@@ -7347,13 +7371,13 @@
         <v>70691</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H26" s="7">
         <v>82</v>
@@ -7362,13 +7386,13 @@
         <v>64645</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M26" s="7">
         <v>147</v>
@@ -7377,19 +7401,19 @@
         <v>135335</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="7">
         <v>36</v>
@@ -7398,13 +7422,13 @@
         <v>39447</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>314</v>
+        <v>526</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>234</v>
+        <v>527</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H27" s="7">
         <v>63</v>
@@ -7413,13 +7437,13 @@
         <v>51128</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>406</v>
+        <v>529</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>376</v>
+        <v>530</v>
       </c>
       <c r="M27" s="7">
         <v>99</v>
@@ -7428,13 +7452,13 @@
         <v>90575</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7473,13 @@
         <v>13892</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -7464,13 +7488,13 @@
         <v>14113</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>215</v>
+        <v>450</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -7479,13 +7503,13 @@
         <v>28006</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>530</v>
+        <v>215</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>291</v>
+        <v>443</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,13 +7524,13 @@
         <v>470759</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="H29" s="7">
         <v>772</v>
@@ -7515,13 +7539,13 @@
         <v>525352</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="M29" s="7">
         <v>1266</v>
@@ -7530,13 +7554,13 @@
         <v>996112</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,13 +7628,13 @@
         <v>41826</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>90</v>
+        <v>444</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>415</v>
       </c>
       <c r="H31" s="7">
         <v>29</v>
@@ -7619,13 +7643,13 @@
         <v>27003</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>401</v>
+        <v>16</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="M31" s="7">
         <v>68</v>
@@ -7634,19 +7658,19 @@
         <v>68829</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C32" s="7">
         <v>33</v>
@@ -7655,13 +7679,13 @@
         <v>35269</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>541</v>
+        <v>22</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -7670,13 +7694,13 @@
         <v>3587</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
@@ -7685,19 +7709,19 @@
         <v>38856</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>462</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="7">
         <v>147</v>
@@ -7706,13 +7730,13 @@
         <v>186739</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>544</v>
+        <v>336</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>122</v>
+        <v>548</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H33" s="7">
         <v>92</v>
@@ -7721,13 +7745,13 @@
         <v>73752</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>545</v>
+        <v>131</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>195</v>
+        <v>432</v>
       </c>
       <c r="M33" s="7">
         <v>239</v>
@@ -7736,19 +7760,19 @@
         <v>260491</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>546</v>
+        <v>357</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>151</v>
+        <v>549</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34" s="7">
         <v>82</v>
@@ -7757,13 +7781,13 @@
         <v>94722</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>381</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>168</v>
+        <v>551</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H34" s="7">
         <v>65</v>
@@ -7772,13 +7796,13 @@
         <v>52208</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>549</v>
+        <v>410</v>
       </c>
       <c r="M34" s="7">
         <v>147</v>
@@ -7787,19 +7811,19 @@
         <v>146931</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>309</v>
+        <v>553</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>412</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>195</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="7">
         <v>181</v>
@@ -7808,13 +7832,13 @@
         <v>221436</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>125</v>
+        <v>554</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="H35" s="7">
         <v>202</v>
@@ -7823,13 +7847,13 @@
         <v>160158</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>317</v>
+        <v>557</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>551</v>
+        <v>116</v>
       </c>
       <c r="M35" s="7">
         <v>383</v>
@@ -7838,19 +7862,19 @@
         <v>381594</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>426</v>
+        <v>559</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7">
         <v>113</v>
@@ -7859,13 +7883,13 @@
         <v>147535</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>108</v>
+        <v>323</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="H36" s="7">
         <v>148</v>
@@ -7874,13 +7898,13 @@
         <v>120845</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>156</v>
+        <v>562</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>556</v>
+        <v>272</v>
       </c>
       <c r="M36" s="7">
         <v>261</v>
@@ -7889,13 +7913,13 @@
         <v>268380</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,13 +7934,13 @@
         <v>53649</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H37" s="7">
         <v>39</v>
@@ -7925,10 +7949,10 @@
         <v>34399</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>221</v>
+        <v>564</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>494</v>
@@ -7940,13 +7964,13 @@
         <v>88048</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>541</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7961,13 +7985,13 @@
         <v>2593621</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="H38" s="7">
         <v>4767</v>
@@ -7976,13 +8000,13 @@
         <v>3321122</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="M38" s="7">
         <v>7488</v>
@@ -7991,13 +8015,13 @@
         <v>5914743</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,7 +8077,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A7C557-D607-4122-840D-1269CA52F935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{534D7970-DF8A-41B0-8B65-C4110F834D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C065AEEC-14D5-46D4-9815-04D4D5645B41}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59DF5077-56A9-4933-AABB-019F92536D03}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="562">
   <si>
     <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -76,1690 +76,1654 @@
     <t>0,52%</t>
   </si>
   <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
     <t>0,19%</t>
   </si>
   <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>0,91%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
     <t>76,85%</t>
   </si>
   <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>78,79%</t>
   </si>
   <si>
     <t>87,56%</t>
   </si>
   <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>82,52%</t>
   </si>
   <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3DBF8E-86AE-49EB-BA55-B91E75DAFF8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F297ACB-31BD-4571-AAAA-6BE1A8A383F9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2469,7 +2433,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -2478,19 +2442,19 @@
         <v>13843</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>20</v>
@@ -2499,13 +2463,13 @@
         <v>22271</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -2514,13 +2478,13 @@
         <v>23867</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2529,19 +2493,19 @@
         <v>46138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>11</v>
@@ -2550,13 +2514,13 @@
         <v>11034</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -2565,13 +2529,13 @@
         <v>15366</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -2580,19 +2544,19 @@
         <v>26400</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="7">
         <v>5</v>
@@ -2601,13 +2565,13 @@
         <v>4898</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2619,10 +2583,10 @@
         <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2631,19 +2595,19 @@
         <v>8048</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="7">
         <v>842</v>
@@ -2652,13 +2616,13 @@
         <v>905325</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7">
         <v>1190</v>
@@ -2667,13 +2631,13 @@
         <v>1276567</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>2032</v>
@@ -2682,13 +2646,13 @@
         <v>2181893</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2667,13 @@
         <v>972575</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H12" s="7">
         <v>1247</v>
@@ -2718,13 +2682,13 @@
         <v>1337796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2153</v>
@@ -2733,18 +2697,18 @@
         <v>2310372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2756,13 +2720,13 @@
         <v>50035</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2771,13 +2735,13 @@
         <v>10802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -2786,13 +2750,13 @@
         <v>60837</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2771,13 @@
         <v>13962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2822,13 +2786,13 @@
         <v>3974</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -2837,13 +2801,13 @@
         <v>17937</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2822,13 @@
         <v>85183</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H15" s="7">
         <v>25</v>
@@ -2873,13 +2837,13 @@
         <v>26591</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
@@ -2888,13 +2852,13 @@
         <v>111774</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2873,13 @@
         <v>47869</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2924,13 +2888,13 @@
         <v>17551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -2939,19 +2903,19 @@
         <v>65420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7">
         <v>144</v>
@@ -2960,13 +2924,13 @@
         <v>150090</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -2975,13 +2939,13 @@
         <v>63995</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>205</v>
@@ -2990,19 +2954,19 @@
         <v>214085</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="7">
         <v>90</v>
@@ -3011,13 +2975,13 @@
         <v>92005</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -3026,13 +2990,13 @@
         <v>47043</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -3041,19 +3005,19 @@
         <v>139047</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="7">
         <v>19</v>
@@ -3062,13 +3026,13 @@
         <v>18619</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -3077,13 +3041,13 @@
         <v>16886</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -3092,19 +3056,19 @@
         <v>35504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" s="7">
         <v>1413</v>
@@ -3113,13 +3077,13 @@
         <v>1506194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>1458</v>
@@ -3128,13 +3092,13 @@
         <v>1569068</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>2871</v>
@@ -3143,13 +3107,13 @@
         <v>3075262</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3128,13 @@
         <v>1963957</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H21" s="7">
         <v>1634</v>
@@ -3179,13 +3143,13 @@
         <v>1755909</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M21" s="7">
         <v>3490</v>
@@ -3194,18 +3158,18 @@
         <v>3719866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3217,13 +3181,13 @@
         <v>15995</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3232,13 +3196,13 @@
         <v>5984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3247,13 +3211,13 @@
         <v>21979</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3232,13 @@
         <v>7590</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3283,13 +3247,13 @@
         <v>1046</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3298,13 +3262,13 @@
         <v>8636</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3283,13 @@
         <v>22011</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -3334,13 +3298,13 @@
         <v>9593</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -3349,13 +3313,13 @@
         <v>31604</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3334,13 @@
         <v>18551</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3385,13 +3349,13 @@
         <v>14213</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -3400,19 +3364,19 @@
         <v>32764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>63</v>
@@ -3421,13 +3385,13 @@
         <v>68617</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -3436,13 +3400,13 @@
         <v>35188</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -3451,19 +3415,19 @@
         <v>103806</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7">
         <v>30</v>
@@ -3472,13 +3436,13 @@
         <v>37433</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H27" s="7">
         <v>20</v>
@@ -3487,13 +3451,13 @@
         <v>23454</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M27" s="7">
         <v>50</v>
@@ -3502,19 +3466,19 @@
         <v>60887</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="7">
         <v>6</v>
@@ -3523,10 +3487,10 @@
         <v>6053</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>190</v>
@@ -3538,13 +3502,13 @@
         <v>4614</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -3553,19 +3517,19 @@
         <v>10667</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C29" s="7">
         <v>283</v>
@@ -3574,13 +3538,13 @@
         <v>304931</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>330</v>
@@ -3589,13 +3553,13 @@
         <v>364537</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>613</v>
@@ -3604,13 +3568,13 @@
         <v>669468</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3589,13 @@
         <v>481181</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H30" s="7">
         <v>412</v>
@@ -3640,13 +3604,13 @@
         <v>458631</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
@@ -3655,13 +3619,13 @@
         <v>939812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3642,13 @@
         <v>71054</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -3699,7 +3663,7 @@
         <v>17</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>81</v>
@@ -3708,13 +3672,13 @@
         <v>89955</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,10 +3696,10 @@
         <v>28</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -3744,13 +3708,13 @@
         <v>8339</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -3759,13 +3723,13 @@
         <v>33351</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3744,13 @@
         <v>119145</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H33" s="7">
         <v>41</v>
@@ -3795,13 +3759,13 @@
         <v>44366</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M33" s="7">
         <v>156</v>
@@ -3810,13 +3774,13 @@
         <v>163511</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3795,13 @@
         <v>75032</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H34" s="7">
         <v>35</v>
@@ -3846,10 +3810,10 @@
         <v>36995</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>222</v>
@@ -3864,16 +3828,16 @@
         <v>223</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" s="7">
         <v>227</v>
@@ -3882,13 +3846,13 @@
         <v>240978</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H35" s="7">
         <v>112</v>
@@ -3897,13 +3861,13 @@
         <v>123051</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M35" s="7">
         <v>339</v>
@@ -3912,19 +3876,19 @@
         <v>364029</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7">
         <v>131</v>
@@ -3933,7 +3897,7 @@
         <v>140472</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>235</v>
@@ -3948,13 +3912,13 @@
         <v>85863</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>210</v>
@@ -3963,19 +3927,19 @@
         <v>226335</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" s="7">
         <v>30</v>
@@ -3987,10 +3951,10 @@
         <v>36</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H37" s="7">
         <v>23</v>
@@ -3999,13 +3963,13 @@
         <v>24649</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>53</v>
@@ -4014,19 +3978,19 @@
         <v>54220</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>244</v>
+        <v>99</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="7">
         <v>2538</v>
@@ -4035,13 +3999,13 @@
         <v>2716451</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H38" s="7">
         <v>2978</v>
@@ -4050,13 +4014,13 @@
         <v>3210172</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M38" s="7">
         <v>5516</v>
@@ -4065,13 +4029,13 @@
         <v>5926622</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4050,13 @@
         <v>3417714</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H39" s="7">
         <v>3293</v>
@@ -4101,13 +4065,13 @@
         <v>3552336</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M39" s="7">
         <v>6493</v>
@@ -4116,18 +4080,18 @@
         <v>6970050</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4146,7 +4110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B6D9A7-7F7F-4EC5-BC3B-6C1F18B009CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB37C2BF-F932-4D21-9F4B-109FE8271F77}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4163,7 +4127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4270,13 +4234,13 @@
         <v>15683</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4285,13 +4249,13 @@
         <v>3720</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>258</v>
+        <v>54</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4300,13 +4264,13 @@
         <v>19403</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4285,13 @@
         <v>3637</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4339,7 +4303,7 @@
         <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>28</v>
@@ -4354,10 +4318,10 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,7 +4336,7 @@
         <v>19209</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>263</v>
@@ -4390,10 +4354,10 @@
         <v>36</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>265</v>
+        <v>90</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -4402,13 +4366,13 @@
         <v>27853</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4387,13 @@
         <v>5285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4438,13 +4402,13 @@
         <v>1926</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4453,19 +4417,19 @@
         <v>7211</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>18</v>
@@ -4474,13 +4438,13 @@
         <v>19364</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>272</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4489,13 +4453,13 @@
         <v>14634</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -4504,19 +4468,19 @@
         <v>33998</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>61</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>11</v>
@@ -4525,13 +4489,13 @@
         <v>11256</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -4540,13 +4504,13 @@
         <v>14540</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>102</v>
+        <v>277</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -4555,19 +4519,19 @@
         <v>25796</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="7">
         <v>7</v>
@@ -4576,13 +4540,13 @@
         <v>7350</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4591,13 +4555,13 @@
         <v>1916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>286</v>
+        <v>71</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4609,16 +4573,16 @@
         <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>287</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="7">
         <v>684</v>
@@ -4627,13 +4591,13 @@
         <v>672563</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H11" s="7">
         <v>847</v>
@@ -4642,13 +4606,13 @@
         <v>946573</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>1531</v>
@@ -4657,13 +4621,13 @@
         <v>1619136</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4642,13 @@
         <v>754347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H12" s="7">
         <v>892</v>
@@ -4693,13 +4657,13 @@
         <v>994660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>1654</v>
@@ -4708,18 +4672,18 @@
         <v>1749007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4731,13 +4695,13 @@
         <v>40652</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -4746,13 +4710,13 @@
         <v>17139</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -4761,13 +4725,13 @@
         <v>57792</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>128</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4746,13 @@
         <v>18269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4797,13 +4761,13 @@
         <v>5900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -4812,13 +4776,13 @@
         <v>24169</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,13 +4797,13 @@
         <v>105010</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H15" s="7">
         <v>57</v>
@@ -4848,13 +4812,13 @@
         <v>58709</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -4863,13 +4827,13 @@
         <v>163718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4848,13 @@
         <v>54480</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -4899,13 +4863,13 @@
         <v>37356</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -4914,19 +4878,19 @@
         <v>91836</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7">
         <v>135</v>
@@ -4935,13 +4899,13 @@
         <v>142808</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -4950,13 +4914,13 @@
         <v>88585</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>222</v>
@@ -4965,19 +4929,19 @@
         <v>231394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="7">
         <v>116</v>
@@ -4986,13 +4950,13 @@
         <v>126563</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>329</v>
+        <v>176</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>330</v>
+        <v>158</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -5001,13 +4965,13 @@
         <v>69256</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M18" s="7">
         <v>182</v>
@@ -5016,19 +4980,19 @@
         <v>195820</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="7">
         <v>68</v>
@@ -5037,13 +5001,13 @@
         <v>72691</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>337</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -5052,13 +5016,13 @@
         <v>24034</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>91</v>
@@ -5067,19 +5031,19 @@
         <v>96725</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" s="7">
         <v>1425</v>
@@ -5088,13 +5052,13 @@
         <v>1515911</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7">
         <v>1616</v>
@@ -5103,13 +5067,13 @@
         <v>1687320</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="M20" s="7">
         <v>3041</v>
@@ -5118,13 +5082,13 @@
         <v>3203231</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5103,13 @@
         <v>2076385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H21" s="7">
         <v>1908</v>
@@ -5154,13 +5118,13 @@
         <v>1988300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M21" s="7">
         <v>3860</v>
@@ -5169,18 +5133,18 @@
         <v>4064685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5192,13 +5156,13 @@
         <v>16901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>85</v>
+        <v>343</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -5207,13 +5171,13 @@
         <v>9505</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -5222,13 +5186,13 @@
         <v>26407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>357</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,7 +5213,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -5258,13 +5222,13 @@
         <v>1827</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>60</v>
+        <v>349</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5273,13 +5237,13 @@
         <v>4695</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>350</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,13 +5258,13 @@
         <v>33476</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5309,13 +5273,13 @@
         <v>16309</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>354</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -5324,13 +5288,13 @@
         <v>49785</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,13 +5309,13 @@
         <v>22507</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -5360,13 +5324,13 @@
         <v>20771</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>361</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -5375,19 +5339,19 @@
         <v>43279</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>95</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>64</v>
@@ -5396,13 +5360,13 @@
         <v>67830</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -5411,13 +5375,13 @@
         <v>47336</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M26" s="7">
         <v>110</v>
@@ -5426,19 +5390,19 @@
         <v>115165</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7">
         <v>32</v>
@@ -5447,13 +5411,13 @@
         <v>36854</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H27" s="7">
         <v>33</v>
@@ -5462,13 +5426,13 @@
         <v>37033</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M27" s="7">
         <v>65</v>
@@ -5477,19 +5441,19 @@
         <v>73887</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="7">
         <v>21</v>
@@ -5498,13 +5462,13 @@
         <v>24492</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>386</v>
+        <v>122</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -5513,13 +5477,13 @@
         <v>16565</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>52</v>
+        <v>380</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -5528,19 +5492,19 @@
         <v>41056</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>389</v>
+        <v>241</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>319</v>
+        <v>382</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>390</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C29" s="7">
         <v>314</v>
@@ -5549,13 +5513,13 @@
         <v>341959</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H29" s="7">
         <v>383</v>
@@ -5564,13 +5528,13 @@
         <v>399793</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M29" s="7">
         <v>697</v>
@@ -5579,13 +5543,13 @@
         <v>741752</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,13 +5564,13 @@
         <v>546886</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H30" s="7">
         <v>526</v>
@@ -5615,13 +5579,13 @@
         <v>549140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M30" s="7">
         <v>1027</v>
@@ -5630,13 +5594,13 @@
         <v>1096026</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5617,13 @@
         <v>73237</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>161</v>
+        <v>392</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>260</v>
+        <v>393</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -5668,13 +5632,13 @@
         <v>30365</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="M31" s="7">
         <v>97</v>
@@ -5686,10 +5650,10 @@
         <v>263</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>401</v>
+        <v>30</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,10 +5671,10 @@
         <v>28</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>13</v>
+        <v>395</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -5719,13 +5683,13 @@
         <v>10435</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M32" s="7">
         <v>33</v>
@@ -5734,13 +5698,13 @@
         <v>35208</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,13 +5719,13 @@
         <v>157695</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H33" s="7">
         <v>81</v>
@@ -5770,13 +5734,13 @@
         <v>83661</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>121</v>
+        <v>401</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="M33" s="7">
         <v>231</v>
@@ -5785,13 +5749,13 @@
         <v>241356</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>409</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5770,13 @@
         <v>82272</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>410</v>
+        <v>126</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H34" s="7">
         <v>59</v>
@@ -5821,13 +5785,13 @@
         <v>60053</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M34" s="7">
         <v>138</v>
@@ -5836,19 +5800,19 @@
         <v>142326</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>415</v>
+        <v>345</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>168</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" s="7">
         <v>217</v>
@@ -5857,13 +5821,13 @@
         <v>230002</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="H35" s="7">
         <v>146</v>
@@ -5872,13 +5836,13 @@
         <v>150555</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="M35" s="7">
         <v>363</v>
@@ -5887,19 +5851,19 @@
         <v>380557</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>162</v>
+        <v>413</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7">
         <v>159</v>
@@ -5908,13 +5872,13 @@
         <v>174673</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="H36" s="7">
         <v>113</v>
@@ -5923,13 +5887,13 @@
         <v>120830</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M36" s="7">
         <v>272</v>
@@ -5938,19 +5902,19 @@
         <v>295503</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>427</v>
+        <v>360</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" s="7">
         <v>96</v>
@@ -5959,13 +5923,13 @@
         <v>104533</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>429</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -5974,13 +5938,13 @@
         <v>42515</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="M37" s="7">
         <v>138</v>
@@ -5989,19 +5953,19 @@
         <v>147048</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>430</v>
+        <v>92</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>431</v>
+        <v>146</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="7">
         <v>2423</v>
@@ -6010,13 +5974,13 @@
         <v>2530433</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="H38" s="7">
         <v>2846</v>
@@ -6025,13 +5989,13 @@
         <v>3033686</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="M38" s="7">
         <v>5269</v>
@@ -6040,13 +6004,13 @@
         <v>5564119</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>440</v>
+        <v>199</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6025,13 @@
         <v>3377618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H39" s="7">
         <v>3326</v>
@@ -6076,13 +6040,13 @@
         <v>3532100</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M39" s="7">
         <v>6541</v>
@@ -6091,18 +6055,18 @@
         <v>6909718</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -6121,7 +6085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0A7866-0CBD-4273-90F1-053FD2F42C72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F373727D-8113-43EC-A8DB-C023A43A3584}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6138,7 +6102,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6245,13 +6209,13 @@
         <v>4857</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>432</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6260,13 +6224,13 @@
         <v>3704</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -6275,13 +6239,13 @@
         <v>8561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>443</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,10 +6263,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>444</v>
+        <v>255</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6311,13 +6275,13 @@
         <v>473</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>445</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -6332,7 +6296,7 @@
         <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6311,13 @@
         <v>9817</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>103</v>
+        <v>433</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>446</v>
+        <v>295</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -6362,13 +6326,13 @@
         <v>5272</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>297</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>449</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>21</v>
@@ -6377,13 +6341,13 @@
         <v>15089</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>451</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,10 +6365,10 @@
         <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>302</v>
+        <v>437</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6413,13 +6377,13 @@
         <v>2640</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>452</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -6428,19 +6392,19 @@
         <v>6594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>453</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>306</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -6452,10 +6416,10 @@
         <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>380</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -6467,10 +6431,10 @@
         <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -6482,16 +6446,16 @@
         <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -6500,13 +6464,13 @@
         <v>1737</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>220</v>
+        <v>438</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -6515,13 +6479,13 @@
         <v>3601</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>145</v>
+        <v>350</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -6533,16 +6497,16 @@
         <v>43</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>454</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>455</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -6557,7 +6521,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>456</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6566,13 +6530,13 @@
         <v>1629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>441</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -6581,19 +6545,19 @@
         <v>3554</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="7">
         <v>654</v>
@@ -6602,13 +6566,13 @@
         <v>511730</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="H11" s="7">
         <v>1388</v>
@@ -6617,13 +6581,13 @@
         <v>807892</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="M11" s="7">
         <v>2042</v>
@@ -6632,13 +6596,13 @@
         <v>1319621</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,13 +6617,13 @@
         <v>541634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H12" s="7">
         <v>1425</v>
@@ -6668,13 +6632,13 @@
         <v>832612</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2116</v>
@@ -6683,18 +6647,18 @@
         <v>1374246</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6706,13 +6670,13 @@
         <v>22832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>298</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -6721,13 +6685,13 @@
         <v>12649</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>468</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -6736,13 +6700,13 @@
         <v>35481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>303</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>469</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6721,13 @@
         <v>23712</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6772,13 +6736,13 @@
         <v>1645</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>34</v>
+        <v>453</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -6787,13 +6751,13 @@
         <v>25357</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>454</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>126</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6772,13 @@
         <v>147329</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>180</v>
+        <v>456</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="H15" s="7">
         <v>58</v>
@@ -6823,13 +6787,13 @@
         <v>45233</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>338</v>
+        <v>458</v>
       </c>
       <c r="M15" s="7">
         <v>165</v>
@@ -6838,13 +6802,13 @@
         <v>192563</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6823,13 @@
         <v>64986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>476</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>430</v>
+        <v>163</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -6874,13 +6838,13 @@
         <v>26287</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>31</v>
+        <v>463</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>477</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -6889,19 +6853,19 @@
         <v>91273</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>464</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>265</v>
+        <v>465</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7">
         <v>110</v>
@@ -6910,13 +6874,13 @@
         <v>145951</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -6925,13 +6889,13 @@
         <v>88110</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>481</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>218</v>
@@ -6940,19 +6904,19 @@
         <v>234061</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>482</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="7">
         <v>75</v>
@@ -6961,13 +6925,13 @@
         <v>106351</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>485</v>
+        <v>320</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>486</v>
+        <v>151</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>487</v>
+        <v>369</v>
       </c>
       <c r="H18" s="7">
         <v>79</v>
@@ -6976,13 +6940,13 @@
         <v>66116</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>488</v>
+        <v>402</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M18" s="7">
         <v>154</v>
@@ -6991,19 +6955,19 @@
         <v>172467</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>104</v>
+        <v>434</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>492</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="7">
         <v>30</v>
@@ -7012,13 +6976,13 @@
         <v>37831</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>415</v>
+        <v>219</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -7027,13 +6991,13 @@
         <v>18657</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>493</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
@@ -7042,19 +7006,19 @@
         <v>56488</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>494</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" s="7">
         <v>1573</v>
@@ -7063,13 +7027,13 @@
         <v>1611133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>495</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="H20" s="7">
         <v>2607</v>
@@ -7078,13 +7042,13 @@
         <v>1987878</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="M20" s="7">
         <v>4180</v>
@@ -7093,13 +7057,13 @@
         <v>3599011</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,13 +7078,13 @@
         <v>2160126</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H21" s="7">
         <v>2919</v>
@@ -7129,13 +7093,13 @@
         <v>2246575</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M21" s="7">
         <v>4909</v>
@@ -7144,18 +7108,18 @@
         <v>4406700</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7167,13 +7131,13 @@
         <v>14137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>456</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>337</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -7182,13 +7146,13 @@
         <v>10651</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -7197,13 +7161,13 @@
         <v>24788</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>505</v>
+        <v>64</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7182,13 @@
         <v>8737</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>468</v>
+        <v>97</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>507</v>
+        <v>312</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -7233,13 +7197,13 @@
         <v>1469</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>453</v>
+        <v>12</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -7248,13 +7212,13 @@
         <v>10207</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>509</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,13 +7233,13 @@
         <v>29594</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -7284,13 +7248,13 @@
         <v>23246</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>434</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>421</v>
+        <v>354</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
@@ -7299,13 +7263,13 @@
         <v>52840</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>119</v>
+        <v>490</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,13 +7284,13 @@
         <v>25782</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>342</v>
+        <v>493</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -7335,13 +7299,13 @@
         <v>23282</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>152</v>
+        <v>434</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>489</v>
+        <v>392</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -7350,19 +7314,19 @@
         <v>49064</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>54</v>
+        <v>497</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>65</v>
@@ -7371,13 +7335,13 @@
         <v>70691</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>519</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>82</v>
@@ -7386,13 +7350,13 @@
         <v>64645</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>520</v>
+        <v>374</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="M26" s="7">
         <v>147</v>
@@ -7401,19 +7365,19 @@
         <v>135335</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7">
         <v>36</v>
@@ -7422,13 +7386,13 @@
         <v>39447</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="H27" s="7">
         <v>63</v>
@@ -7437,13 +7401,13 @@
         <v>51128</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="M27" s="7">
         <v>99</v>
@@ -7452,19 +7416,19 @@
         <v>90575</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="7">
         <v>14</v>
@@ -7473,13 +7437,13 @@
         <v>13892</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>534</v>
+        <v>169</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -7488,13 +7452,13 @@
         <v>14113</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>364</v>
+        <v>515</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -7503,19 +7467,19 @@
         <v>28006</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>443</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>310</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C29" s="7">
         <v>494</v>
@@ -7524,13 +7488,13 @@
         <v>470759</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="H29" s="7">
         <v>772</v>
@@ -7539,13 +7503,13 @@
         <v>525352</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="M29" s="7">
         <v>1266</v>
@@ -7554,13 +7518,13 @@
         <v>996112</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7575,13 +7539,13 @@
         <v>673039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H30" s="7">
         <v>1004</v>
@@ -7590,13 +7554,13 @@
         <v>713886</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M30" s="7">
         <v>1685</v>
@@ -7605,13 +7569,13 @@
         <v>1386926</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,13 +7592,13 @@
         <v>41826</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>444</v>
+        <v>525</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="H31" s="7">
         <v>29</v>
@@ -7643,13 +7607,13 @@
         <v>27003</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="M31" s="7">
         <v>68</v>
@@ -7658,13 +7622,13 @@
         <v>68829</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>30</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,13 +7643,13 @@
         <v>35269</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>243</v>
+        <v>527</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -7694,13 +7658,13 @@
         <v>3587</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
@@ -7709,13 +7673,13 @@
         <v>38856</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>547</v>
+        <v>194</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,13 +7694,13 @@
         <v>186739</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>336</v>
+        <v>529</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="H33" s="7">
         <v>92</v>
@@ -7745,13 +7709,13 @@
         <v>73752</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>275</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="M33" s="7">
         <v>239</v>
@@ -7760,13 +7724,13 @@
         <v>260491</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>357</v>
+        <v>532</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>549</v>
+        <v>167</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,13 +7745,13 @@
         <v>94722</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>239</v>
+        <v>534</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>551</v>
+        <v>405</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="H34" s="7">
         <v>65</v>
@@ -7796,13 +7760,13 @@
         <v>52208</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>38</v>
+        <v>536</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="M34" s="7">
         <v>147</v>
@@ -7811,19 +7775,19 @@
         <v>146931</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>432</v>
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" s="7">
         <v>181</v>
@@ -7832,13 +7796,13 @@
         <v>221436</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="H35" s="7">
         <v>202</v>
@@ -7847,13 +7811,13 @@
         <v>160158</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>557</v>
+        <v>107</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>116</v>
+        <v>543</v>
       </c>
       <c r="M35" s="7">
         <v>383</v>
@@ -7862,19 +7826,19 @@
         <v>381594</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>559</v>
+        <v>397</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7">
         <v>113</v>
@@ -7883,13 +7847,13 @@
         <v>147535</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>323</v>
+        <v>127</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="H36" s="7">
         <v>148</v>
@@ -7898,13 +7862,13 @@
         <v>120845</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>272</v>
+        <v>151</v>
       </c>
       <c r="M36" s="7">
         <v>261</v>
@@ -7913,19 +7877,19 @@
         <v>268380</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>549</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>426</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" s="7">
         <v>46</v>
@@ -7934,13 +7898,13 @@
         <v>53649</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>63</v>
+        <v>551</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c r="H37" s="7">
         <v>39</v>
@@ -7949,13 +7913,13 @@
         <v>34399</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="M37" s="7">
         <v>85</v>
@@ -7967,16 +7931,16 @@
         <v>30</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="7">
         <v>2721</v>
@@ -7985,13 +7949,13 @@
         <v>2593621</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>566</v>
+        <v>335</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="H38" s="7">
         <v>4767</v>
@@ -8000,13 +7964,13 @@
         <v>3321122</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="M38" s="7">
         <v>7488</v>
@@ -8015,13 +7979,13 @@
         <v>5914743</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8036,13 +8000,13 @@
         <v>3374798</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H39" s="7">
         <v>5348</v>
@@ -8051,13 +8015,13 @@
         <v>3793074</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M39" s="7">
         <v>8710</v>
@@ -8066,18 +8030,18 @@
         <v>7167872</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{534D7970-DF8A-41B0-8B65-C4110F834D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CBC3E51-29EB-4590-B72F-427B494A720E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59DF5077-56A9-4933-AABB-019F92536D03}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{095411E4-AE12-440A-8994-08A84F2AA9C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="561">
   <si>
     <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -1336,394 +1336,391 @@
     <t>Población según el número de días a la semana que realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +2132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F297ACB-31BD-4571-AAAA-6BE1A8A383F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01AA1BF-4BB1-4856-9F36-5B83360215D2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2628,7 +2625,7 @@
         <v>1190</v>
       </c>
       <c r="I11" s="7">
-        <v>1276567</v>
+        <v>1276568</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>78</v>
@@ -2679,7 +2676,7 @@
         <v>1247</v>
       </c>
       <c r="I12" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>84</v>
@@ -3310,7 +3307,7 @@
         <v>27</v>
       </c>
       <c r="N24" s="7">
-        <v>31604</v>
+        <v>31605</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>162</v>
@@ -3565,7 +3562,7 @@
         <v>613</v>
       </c>
       <c r="N29" s="7">
-        <v>669468</v>
+        <v>669469</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>202</v>
@@ -3616,7 +3613,7 @@
         <v>850</v>
       </c>
       <c r="N30" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>84</v>
@@ -4011,7 +4008,7 @@
         <v>2978</v>
       </c>
       <c r="I38" s="7">
-        <v>3210172</v>
+        <v>3210173</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>247</v>
@@ -4062,7 +4059,7 @@
         <v>3293</v>
       </c>
       <c r="I39" s="7">
-        <v>3552336</v>
+        <v>3552337</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>84</v>
@@ -4110,7 +4107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB37C2BF-F932-4D21-9F4B-109FE8271F77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24E6561-B639-43B7-91EA-E04D5B508E3A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5387,7 +5384,7 @@
         <v>110</v>
       </c>
       <c r="N26" s="7">
-        <v>115165</v>
+        <v>115166</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>371</v>
@@ -5489,7 +5486,7 @@
         <v>38</v>
       </c>
       <c r="N28" s="7">
-        <v>41056</v>
+        <v>41057</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>241</v>
@@ -5540,7 +5537,7 @@
         <v>697</v>
       </c>
       <c r="N29" s="7">
-        <v>741752</v>
+        <v>741753</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>389</v>
@@ -5591,7 +5588,7 @@
         <v>1027</v>
       </c>
       <c r="N30" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>84</v>
@@ -6085,7 +6082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F373727D-8113-43EC-A8DB-C023A43A3584}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DB6757-75B0-4944-8005-FBF711F79AE7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6206,46 +6203,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>4857</v>
+        <v>4525</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>432</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>3704</v>
+        <v>2664</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>152</v>
+        <v>349</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>8561</v>
+        <v>7189</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,22 +6254,22 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>2820</v>
+        <v>2610</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>396</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>434</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>96</v>
@@ -6287,13 +6284,13 @@
         <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>3293</v>
+        <v>3045</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>37</v>
@@ -6308,46 +6305,46 @@
         <v>13</v>
       </c>
       <c r="D6" s="7">
-        <v>9817</v>
+        <v>9615</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>5272</v>
+        <v>4819</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>435</v>
+        <v>298</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>297</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="M6" s="7">
         <v>21</v>
       </c>
       <c r="N6" s="7">
-        <v>15089</v>
+        <v>14433</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>436</v>
+        <v>54</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,46 +6356,46 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>3954</v>
+        <v>3499</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>437</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2640</v>
+        <v>2332</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>6594</v>
+        <v>5831</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>437</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,37 +6407,37 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>4794</v>
+        <v>4509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>7403</v>
+        <v>6804</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>12197</v>
+        <v>11314</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>40</v>
@@ -6461,46 +6458,46 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>1737</v>
+        <v>1746</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>438</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>3601</v>
+        <v>3320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>350</v>
+        <v>243</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>154</v>
+        <v>438</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>5337</v>
+        <v>5066</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>99</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,7 +6509,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1925</v>
+        <v>1869</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>21</v>
@@ -6521,37 +6518,37 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1629</v>
+        <v>1508</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>440</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>441</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>3554</v>
+        <v>3376</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,46 +6560,46 @@
         <v>654</v>
       </c>
       <c r="D11" s="7">
-        <v>511730</v>
+        <v>486565</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H11" s="7">
         <v>1388</v>
       </c>
       <c r="I11" s="7">
-        <v>807892</v>
+        <v>730753</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M11" s="7">
         <v>2042</v>
       </c>
       <c r="N11" s="7">
-        <v>1319621</v>
+        <v>1217319</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,7 +6611,7 @@
         <v>691</v>
       </c>
       <c r="D12" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>84</v>
@@ -6629,7 +6626,7 @@
         <v>1425</v>
       </c>
       <c r="I12" s="7">
-        <v>832612</v>
+        <v>752635</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>84</v>
@@ -6644,7 +6641,7 @@
         <v>2116</v>
       </c>
       <c r="N12" s="7">
-        <v>1374246</v>
+        <v>1267574</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>84</v>
@@ -6667,46 +6664,46 @@
         <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>22832</v>
+        <v>21734</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>450</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>12649</v>
+        <v>11203</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>35481</v>
+        <v>32936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>28</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>349</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6715,13 @@
         <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>23712</v>
+        <v>25311</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>451</v>
@@ -6733,7 +6730,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>1645</v>
+        <v>1534</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>70</v>
@@ -6742,22 +6739,22 @@
         <v>452</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>453</v>
+        <v>12</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
       </c>
       <c r="N14" s="7">
-        <v>25357</v>
+        <v>26844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>454</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,46 +6766,46 @@
         <v>107</v>
       </c>
       <c r="D15" s="7">
-        <v>147329</v>
+        <v>149542</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>456</v>
+        <v>316</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H15" s="7">
         <v>58</v>
       </c>
       <c r="I15" s="7">
-        <v>45233</v>
+        <v>42728</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>458</v>
+        <v>307</v>
       </c>
       <c r="M15" s="7">
         <v>165</v>
       </c>
       <c r="N15" s="7">
-        <v>192563</v>
+        <v>192270</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>460</v>
+        <v>185</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,46 +6817,46 @@
         <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>64986</v>
+        <v>63093</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>26287</v>
+        <v>22850</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
       </c>
       <c r="N16" s="7">
-        <v>91273</v>
+        <v>85943</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>464</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,46 +6868,46 @@
         <v>110</v>
       </c>
       <c r="D17" s="7">
-        <v>145951</v>
+        <v>141979</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
       </c>
       <c r="I17" s="7">
-        <v>88110</v>
+        <v>79594</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>469</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>218</v>
       </c>
       <c r="N17" s="7">
-        <v>234061</v>
+        <v>221573</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,46 +6919,46 @@
         <v>75</v>
       </c>
       <c r="D18" s="7">
-        <v>106351</v>
+        <v>106578</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>151</v>
+        <v>404</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>369</v>
+        <v>467</v>
       </c>
       <c r="H18" s="7">
         <v>79</v>
       </c>
       <c r="I18" s="7">
-        <v>66116</v>
+        <v>60033</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>473</v>
+        <v>401</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>474</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>154</v>
       </c>
       <c r="N18" s="7">
-        <v>172467</v>
+        <v>166612</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>434</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>354</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,46 +6970,46 @@
         <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>37831</v>
+        <v>37455</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>58</v>
+        <v>470</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>18657</v>
+        <v>17081</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>476</v>
+        <v>208</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
       </c>
       <c r="N19" s="7">
-        <v>56488</v>
+        <v>54536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7024,46 +7021,46 @@
         <v>1573</v>
       </c>
       <c r="D20" s="7">
-        <v>1611133</v>
+        <v>1742827</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
         <v>2607</v>
       </c>
       <c r="I20" s="7">
-        <v>1987878</v>
+        <v>2000500</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>4180</v>
       </c>
       <c r="N20" s="7">
-        <v>3599011</v>
+        <v>3743328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,7 +7072,7 @@
         <v>1990</v>
       </c>
       <c r="D21" s="7">
-        <v>2160126</v>
+        <v>2288519</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>84</v>
@@ -7090,7 +7087,7 @@
         <v>2919</v>
       </c>
       <c r="I21" s="7">
-        <v>2246575</v>
+        <v>2235523</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>84</v>
@@ -7105,7 +7102,7 @@
         <v>4909</v>
       </c>
       <c r="N21" s="7">
-        <v>4406700</v>
+        <v>4524042</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>84</v>
@@ -7128,46 +7125,46 @@
         <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>14137</v>
+        <v>13113</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>485</v>
+        <v>32</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>481</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>10651</v>
+        <v>9373</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>482</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
       </c>
       <c r="N22" s="7">
-        <v>24788</v>
+        <v>22486</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
+        <v>484</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>487</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>55</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,7 +7176,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>8737</v>
+        <v>8424</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>148</v>
@@ -7188,13 +7185,13 @@
         <v>97</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>312</v>
+        <v>486</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>1469</v>
+        <v>1369</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>12</v>
@@ -7209,16 +7206,16 @@
         <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>10207</v>
+        <v>9793</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>463</v>
+        <v>65</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>103</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7227,13 @@
         <v>27</v>
       </c>
       <c r="D24" s="7">
-        <v>29594</v>
+        <v>30036</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>488</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>489</v>
@@ -7245,31 +7242,31 @@
         <v>26</v>
       </c>
       <c r="I24" s="7">
-        <v>23246</v>
+        <v>22190</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>434</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>354</v>
+        <v>491</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
       </c>
       <c r="N24" s="7">
-        <v>52840</v>
+        <v>52226</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>490</v>
+        <v>398</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>240</v>
+        <v>492</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7281,46 +7278,46 @@
         <v>21</v>
       </c>
       <c r="D25" s="7">
-        <v>25782</v>
+        <v>24092</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
       </c>
       <c r="I25" s="7">
-        <v>23282</v>
+        <v>21621</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>185</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>392</v>
+        <v>218</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
       </c>
       <c r="N25" s="7">
-        <v>49064</v>
+        <v>45714</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>496</v>
+        <v>101</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,25 +7329,25 @@
         <v>65</v>
       </c>
       <c r="D26" s="7">
-        <v>70691</v>
+        <v>67965</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>82</v>
       </c>
       <c r="I26" s="7">
-        <v>64645</v>
+        <v>59668</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>501</v>
@@ -7362,7 +7359,7 @@
         <v>147</v>
       </c>
       <c r="N26" s="7">
-        <v>135335</v>
+        <v>127633</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>503</v>
@@ -7383,46 +7380,46 @@
         <v>36</v>
       </c>
       <c r="D27" s="7">
-        <v>39447</v>
+        <v>38105</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H27" s="7">
         <v>63</v>
       </c>
       <c r="I27" s="7">
-        <v>51128</v>
+        <v>48156</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="M27" s="7">
         <v>99</v>
       </c>
       <c r="N27" s="7">
-        <v>90575</v>
+        <v>86261</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>512</v>
+        <v>122</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>461</v>
+        <v>231</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,13 +7431,13 @@
         <v>14</v>
       </c>
       <c r="D28" s="7">
-        <v>13892</v>
+        <v>13402</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>406</v>
+        <v>511</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>62</v>
+        <v>395</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>169</v>
@@ -7449,31 +7446,31 @@
         <v>17</v>
       </c>
       <c r="I28" s="7">
-        <v>14113</v>
+        <v>12847</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>515</v>
+        <v>101</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
       </c>
       <c r="N28" s="7">
-        <v>28006</v>
+        <v>26249</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>432</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>38</v>
+        <v>513</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,46 +7482,46 @@
         <v>494</v>
       </c>
       <c r="D29" s="7">
-        <v>470759</v>
+        <v>451485</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H29" s="7">
         <v>772</v>
       </c>
       <c r="I29" s="7">
-        <v>525352</v>
+        <v>485240</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M29" s="7">
         <v>1266</v>
       </c>
       <c r="N29" s="7">
-        <v>996112</v>
+        <v>936725</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,7 +7533,7 @@
         <v>681</v>
       </c>
       <c r="D30" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>84</v>
@@ -7551,7 +7548,7 @@
         <v>1004</v>
       </c>
       <c r="I30" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>84</v>
@@ -7566,7 +7563,7 @@
         <v>1685</v>
       </c>
       <c r="N30" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>84</v>
@@ -7589,46 +7586,46 @@
         <v>39</v>
       </c>
       <c r="D31" s="7">
-        <v>41826</v>
+        <v>39372</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>525</v>
+        <v>54</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="H31" s="7">
         <v>29</v>
       </c>
       <c r="I31" s="7">
-        <v>27003</v>
+        <v>23239</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>526</v>
+        <v>45</v>
       </c>
       <c r="M31" s="7">
         <v>68</v>
       </c>
       <c r="N31" s="7">
-        <v>68829</v>
+        <v>62611</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>132</v>
+        <v>295</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>28</v>
+        <v>524</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>525</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,46 +7637,46 @@
         <v>33</v>
       </c>
       <c r="D32" s="7">
-        <v>35269</v>
+        <v>36344</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
       </c>
       <c r="I32" s="7">
-        <v>3587</v>
+        <v>3338</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>257</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>95</v>
+        <v>527</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
       </c>
       <c r="N32" s="7">
-        <v>38856</v>
+        <v>39682</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>275</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,46 +7688,46 @@
         <v>147</v>
       </c>
       <c r="D33" s="7">
-        <v>186739</v>
+        <v>189192</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="H33" s="7">
         <v>92</v>
       </c>
       <c r="I33" s="7">
-        <v>73752</v>
+        <v>69737</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>422</v>
+        <v>531</v>
       </c>
       <c r="M33" s="7">
         <v>239</v>
       </c>
       <c r="N33" s="7">
-        <v>260491</v>
+        <v>258929</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>532</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>167</v>
+        <v>533</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,46 +7739,46 @@
         <v>82</v>
       </c>
       <c r="D34" s="7">
-        <v>94722</v>
+        <v>90684</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>405</v>
+        <v>291</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H34" s="7">
         <v>65</v>
       </c>
       <c r="I34" s="7">
-        <v>52208</v>
+        <v>46803</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>536</v>
+        <v>35</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>244</v>
+        <v>154</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>451</v>
+        <v>345</v>
       </c>
       <c r="M34" s="7">
         <v>147</v>
       </c>
       <c r="N34" s="7">
-        <v>146931</v>
+        <v>137487</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>537</v>
+        <v>61</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>538</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,46 +7790,46 @@
         <v>181</v>
       </c>
       <c r="D35" s="7">
-        <v>221436</v>
+        <v>214454</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>540</v>
+        <v>119</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H35" s="7">
         <v>202</v>
       </c>
       <c r="I35" s="7">
-        <v>160158</v>
+        <v>146066</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>542</v>
+        <v>398</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>107</v>
+        <v>539</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="M35" s="7">
         <v>383</v>
       </c>
       <c r="N35" s="7">
-        <v>381594</v>
+        <v>360520</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>397</v>
+        <v>534</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,40 +7841,40 @@
         <v>113</v>
       </c>
       <c r="D36" s="7">
-        <v>147535</v>
+        <v>146429</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>459</v>
+        <v>543</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>127</v>
+        <v>544</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>546</v>
+        <v>456</v>
       </c>
       <c r="H36" s="7">
         <v>148</v>
       </c>
       <c r="I36" s="7">
-        <v>120845</v>
+        <v>111509</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M36" s="7">
         <v>261</v>
       </c>
       <c r="N36" s="7">
-        <v>268380</v>
+        <v>257938</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>128</v>
+        <v>548</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>549</v>
@@ -7895,13 +7892,13 @@
         <v>46</v>
       </c>
       <c r="D37" s="7">
-        <v>53649</v>
+        <v>52726</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>111</v>
+        <v>450</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>551</v>
+        <v>89</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>303</v>
@@ -7910,31 +7907,31 @@
         <v>39</v>
       </c>
       <c r="I37" s="7">
-        <v>34399</v>
+        <v>31436</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>552</v>
+        <v>271</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>553</v>
+        <v>94</v>
       </c>
       <c r="M37" s="7">
         <v>85</v>
       </c>
       <c r="N37" s="7">
-        <v>88048</v>
+        <v>84162</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>152</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,46 +7943,46 @@
         <v>2721</v>
       </c>
       <c r="D38" s="7">
-        <v>2593621</v>
+        <v>2680879</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="H38" s="7">
         <v>4767</v>
       </c>
       <c r="I38" s="7">
-        <v>3321122</v>
+        <v>3216493</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="M38" s="7">
         <v>7488</v>
       </c>
       <c r="N38" s="7">
-        <v>5914743</v>
+        <v>5897372</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7997,7 +7994,7 @@
         <v>3362</v>
       </c>
       <c r="D39" s="7">
-        <v>3374798</v>
+        <v>3450081</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>84</v>
@@ -8012,7 +8009,7 @@
         <v>5348</v>
       </c>
       <c r="I39" s="7">
-        <v>3793074</v>
+        <v>3648621</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>84</v>
@@ -8027,7 +8024,7 @@
         <v>8710</v>
       </c>
       <c r="N39" s="7">
-        <v>7167872</v>
+        <v>7098702</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>84</v>

--- a/data/trans_orig/P34B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B03-Estudios-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número medio de días a la semana que la población realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación</t>
+          <t>Número medio de días a la semana que la población realiza una actividad física moderada, como montar en bicicleta, gimnasia, aeróbic,correr, natación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
